--- a/Editables/DiagramaGantt.xlsx
+++ b/Editables/DiagramaGantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kilia\Desktop\Proyecto_CG\Editables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\Octavo Semestre\Computacion Grafica\ProyFinal\ProyectoCG\Editables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265FB6EF-0F70-47FA-B9F0-08FCB2642C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6217D2-46D8-4530-8C8C-A3B6A5FDBEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A81C6D7D-8F9D-47F5-B466-7877C279A443}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A81C6D7D-8F9D-47F5-B466-7877C279A443}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -634,11 +634,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6E7E03-6D1C-4CA1-87FF-7067265402C9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1827,6 +1830,6 @@
     <mergeCell ref="E2:AA2"/>
   </mergeCells>
   <pageMargins left="0.94488188976377963" right="0.94488188976377963" top="0.94488188976377963" bottom="0.94488188976377963" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>